--- a/data_year/zb/文化/电视节目制作播出情况.xlsx
+++ b/data_year/zb/文化/电视节目制作播出情况.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,640 +488,429 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>78</v>
+      </c>
+      <c r="C2" t="n">
+        <v>16355043.3</v>
+      </c>
       <c r="D2" t="n">
-        <v>871081</v>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+        <v>2742949</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>24.92</v>
+      </c>
+      <c r="G2" t="n">
+        <v>635.86</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3272</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>8800</v>
+      </c>
+      <c r="K2" t="n">
+        <v>19.51</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>96</v>
+      </c>
+      <c r="C3" t="n">
+        <v>16753029.4166667</v>
+      </c>
       <c r="D3" t="n">
-        <v>1578755</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+        <v>2950490.2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>280254.616666667</v>
+      </c>
+      <c r="F3" t="n">
+        <v>24.706</v>
+      </c>
+      <c r="G3" t="n">
+        <v>663.6255</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3274</v>
+      </c>
+      <c r="I3" t="n">
+        <v>14822.2</v>
+      </c>
+      <c r="J3" t="n">
+        <v>6377</v>
+      </c>
+      <c r="K3" t="n">
+        <v>16.6401</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>80</v>
+      </c>
+      <c r="C4" t="n">
+        <v>16985291.0333333</v>
+      </c>
       <c r="D4" t="n">
-        <v>1680909</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>3436300.96666667</v>
+      </c>
+      <c r="E4" t="n">
+        <v>304877</v>
+      </c>
+      <c r="F4" t="n">
+        <v>24.2298</v>
+      </c>
+      <c r="G4" t="n">
+        <v>662.2012999999999</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3273</v>
+      </c>
+      <c r="I4" t="n">
+        <v>12063</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4872</v>
+      </c>
+      <c r="K4" t="n">
+        <v>10.7103</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
+          <t>2013年</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>88</v>
+      </c>
+      <c r="C5" t="n">
+        <v>17057211.72</v>
+      </c>
       <c r="D5" t="n">
-        <v>1791110</v>
-      </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>3397834.01666667</v>
+      </c>
+      <c r="E5" t="n">
+        <v>293139.95</v>
+      </c>
+      <c r="F5" t="n">
+        <v>24.0996</v>
+      </c>
+      <c r="G5" t="n">
+        <v>661.4157</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3250</v>
+      </c>
+      <c r="I5" t="n">
+        <v>14014.5333333333</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3616</v>
+      </c>
+      <c r="K5" t="n">
+        <v>9.8939</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" t="n">
+        <v>17476125.9</v>
+      </c>
       <c r="D6" t="n">
-        <v>2117158</v>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>3277394</v>
+      </c>
+      <c r="E6" t="n">
+        <v>304838.583333333</v>
+      </c>
+      <c r="F6" t="n">
+        <v>23.2802</v>
+      </c>
+      <c r="G6" t="n">
+        <v>669.001</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3329</v>
+      </c>
+      <c r="I6" t="n">
+        <v>15883.3666666667</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2878</v>
+      </c>
+      <c r="K6" t="n">
+        <v>8.0527</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>17796009.8166667</v>
+      </c>
       <c r="D7" t="n">
-        <v>2553861</v>
-      </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>3520190</v>
+      </c>
+      <c r="E7" t="n">
+        <v>309100</v>
+      </c>
+      <c r="F7" t="n">
+        <v>23.3105</v>
+      </c>
+      <c r="G7" t="n">
+        <v>686.3633</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3442</v>
+      </c>
+      <c r="I7" t="n">
+        <v>9700</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2889</v>
+      </c>
+      <c r="K7" t="n">
+        <v>8.153499999999999</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>109</v>
-      </c>
+          <t>2016年</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>13604469</v>
+        <v>17924000</v>
       </c>
       <c r="D8" t="n">
-        <v>2618034</v>
-      </c>
-      <c r="E8" t="inlineStr"/>
+        <v>3507217</v>
+      </c>
+      <c r="E8" t="n">
+        <v>328900</v>
+      </c>
       <c r="F8" t="n">
-        <v>22.7269</v>
+        <v>22.72</v>
       </c>
       <c r="G8" t="n">
-        <v>490.2687</v>
+        <v>688.64</v>
       </c>
       <c r="H8" t="n">
-        <v>2983</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>3360</v>
+      </c>
+      <c r="I8" t="n">
+        <v>8900</v>
+      </c>
       <c r="J8" t="n">
-        <v>13311</v>
+        <v>2400</v>
       </c>
       <c r="K8" t="n">
-        <v>25.08</v>
+        <v>7.25</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>87</v>
-      </c>
+          <t>2017年</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>14546657</v>
+        <v>18810190</v>
       </c>
       <c r="D9" t="n">
-        <v>2553283</v>
-      </c>
-      <c r="E9" t="inlineStr"/>
+        <v>3651775.07</v>
+      </c>
+      <c r="E9" t="n">
+        <v>362800</v>
+      </c>
       <c r="F9" t="n">
-        <v>22.5676</v>
+        <v>23.13</v>
       </c>
       <c r="G9" t="n">
-        <v>534.972</v>
+        <v>698.7376</v>
       </c>
       <c r="H9" t="n">
-        <v>3127</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>3493</v>
+      </c>
+      <c r="I9" t="n">
+        <v>11479</v>
+      </c>
       <c r="J9" t="n">
-        <v>10652</v>
+        <v>1473</v>
       </c>
       <c r="K9" t="n">
-        <v>26.4228</v>
+        <v>4.03</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>89</v>
-      </c>
+          <t>2018年</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>14953361.6166667</v>
+        <v>19250257</v>
       </c>
       <c r="D10" t="n">
-        <v>2641949</v>
-      </c>
-      <c r="E10" t="inlineStr"/>
+        <v>3577444</v>
+      </c>
+      <c r="E10" t="n">
+        <v>374485</v>
+      </c>
       <c r="F10" t="n">
-        <v>22.569</v>
+        <v>21.7591</v>
       </c>
       <c r="G10" t="n">
-        <v>550.4326</v>
+        <v>707.7</v>
       </c>
       <c r="H10" t="n">
-        <v>3199</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>3559</v>
+      </c>
+      <c r="I10" t="n">
+        <v>8879</v>
+      </c>
       <c r="J10" t="n">
-        <v>9251</v>
+        <v>811</v>
       </c>
       <c r="K10" t="n">
-        <v>22.9565</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>87</v>
-      </c>
+          <t>2019年</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>15776767.1166667</v>
+        <v>19510000</v>
       </c>
       <c r="D11" t="n">
-        <v>2653552</v>
-      </c>
-      <c r="E11" t="inlineStr"/>
+        <v>3455809</v>
+      </c>
+      <c r="E11" t="n">
+        <v>398700</v>
+      </c>
       <c r="F11" t="n">
-        <v>23.825</v>
+        <v>21.11</v>
       </c>
       <c r="G11" t="n">
-        <v>605.0882</v>
+        <v>722.9400000000001</v>
       </c>
       <c r="H11" t="n">
-        <v>3250</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>3609</v>
+      </c>
+      <c r="I11" t="n">
+        <v>5200</v>
+      </c>
       <c r="J11" t="n">
-        <v>9099</v>
+        <v>500</v>
       </c>
       <c r="K11" t="n">
-        <v>22.4139</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>78</v>
-      </c>
+          <t>2020年</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>16355043.3</v>
+        <v>19883117.43</v>
       </c>
       <c r="D12" t="n">
-        <v>2742949</v>
+        <v>3282439.67</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>446113.08</v>
       </c>
       <c r="F12" t="n">
-        <v>24.92</v>
+        <v>21.2716</v>
       </c>
       <c r="G12" t="n">
-        <v>635.86</v>
+        <v>739.3772</v>
       </c>
       <c r="H12" t="n">
-        <v>3272</v>
+        <v>3603</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7058.42</v>
       </c>
       <c r="J12" t="n">
-        <v>8800</v>
+        <v>392</v>
       </c>
       <c r="K12" t="n">
-        <v>19.51</v>
+        <v>1.1823</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>96</v>
-      </c>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>16753029.4166667</v>
+        <v>20139916.52</v>
       </c>
       <c r="D13" t="n">
-        <v>2950490.2</v>
+        <v>3059642.05</v>
       </c>
       <c r="E13" t="n">
-        <v>280254.616666667</v>
+        <v>452407.63</v>
       </c>
       <c r="F13" t="n">
-        <v>24.706</v>
+        <v>20.8923</v>
       </c>
       <c r="G13" t="n">
-        <v>663.6255</v>
+        <v>744.141</v>
       </c>
       <c r="H13" t="n">
-        <v>3274</v>
+        <v>3613</v>
       </c>
       <c r="I13" t="n">
-        <v>14822.2</v>
+        <v>2939.23</v>
       </c>
       <c r="J13" t="n">
-        <v>6377</v>
+        <v>314</v>
       </c>
       <c r="K13" t="n">
-        <v>16.6401</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>80</v>
-      </c>
-      <c r="C14" t="n">
-        <v>16985291.0333333</v>
-      </c>
-      <c r="D14" t="n">
-        <v>3436300.96666667</v>
-      </c>
-      <c r="E14" t="n">
-        <v>304877</v>
-      </c>
-      <c r="F14" t="n">
-        <v>24.2298</v>
-      </c>
-      <c r="G14" t="n">
-        <v>662.2012999999999</v>
-      </c>
-      <c r="H14" t="n">
-        <v>3273</v>
-      </c>
-      <c r="I14" t="n">
-        <v>12063</v>
-      </c>
-      <c r="J14" t="n">
-        <v>4872</v>
-      </c>
-      <c r="K14" t="n">
-        <v>10.7103</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>88</v>
-      </c>
-      <c r="C15" t="n">
-        <v>17057211.72</v>
-      </c>
-      <c r="D15" t="n">
-        <v>3397834.01666667</v>
-      </c>
-      <c r="E15" t="n">
-        <v>293139.95</v>
-      </c>
-      <c r="F15" t="n">
-        <v>24.0996</v>
-      </c>
-      <c r="G15" t="n">
-        <v>661.4157</v>
-      </c>
-      <c r="H15" t="n">
-        <v>3250</v>
-      </c>
-      <c r="I15" t="n">
-        <v>14014.5333333333</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3616</v>
-      </c>
-      <c r="K15" t="n">
-        <v>9.8939</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="n">
-        <v>17476125.9</v>
-      </c>
-      <c r="D16" t="n">
-        <v>3277394</v>
-      </c>
-      <c r="E16" t="n">
-        <v>304838.583333333</v>
-      </c>
-      <c r="F16" t="n">
-        <v>23.2802</v>
-      </c>
-      <c r="G16" t="n">
-        <v>669.001</v>
-      </c>
-      <c r="H16" t="n">
-        <v>3329</v>
-      </c>
-      <c r="I16" t="n">
-        <v>15883.3666666667</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2878</v>
-      </c>
-      <c r="K16" t="n">
-        <v>8.0527</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="n">
-        <v>17796009.8166667</v>
-      </c>
-      <c r="D17" t="n">
-        <v>3520190</v>
-      </c>
-      <c r="E17" t="n">
-        <v>309100</v>
-      </c>
-      <c r="F17" t="n">
-        <v>23.3105</v>
-      </c>
-      <c r="G17" t="n">
-        <v>686.3633</v>
-      </c>
-      <c r="H17" t="n">
-        <v>3442</v>
-      </c>
-      <c r="I17" t="n">
-        <v>9700</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2889</v>
-      </c>
-      <c r="K17" t="n">
-        <v>8.153499999999999</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="n">
-        <v>17924000</v>
-      </c>
-      <c r="D18" t="n">
-        <v>3507217</v>
-      </c>
-      <c r="E18" t="n">
-        <v>328900</v>
-      </c>
-      <c r="F18" t="n">
-        <v>22.72</v>
-      </c>
-      <c r="G18" t="n">
-        <v>688.64</v>
-      </c>
-      <c r="H18" t="n">
-        <v>3360</v>
-      </c>
-      <c r="I18" t="n">
-        <v>8900</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2400</v>
-      </c>
-      <c r="K18" t="n">
-        <v>7.25</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="n">
-        <v>18810190</v>
-      </c>
-      <c r="D19" t="n">
-        <v>3651775.07</v>
-      </c>
-      <c r="E19" t="n">
-        <v>362800</v>
-      </c>
-      <c r="F19" t="n">
-        <v>23.13</v>
-      </c>
-      <c r="G19" t="n">
-        <v>698.7376</v>
-      </c>
-      <c r="H19" t="n">
-        <v>3493</v>
-      </c>
-      <c r="I19" t="n">
-        <v>11479</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1473</v>
-      </c>
-      <c r="K19" t="n">
-        <v>4.03</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="n">
-        <v>19250257</v>
-      </c>
-      <c r="D20" t="n">
-        <v>3577444</v>
-      </c>
-      <c r="E20" t="n">
-        <v>374485</v>
-      </c>
-      <c r="F20" t="n">
-        <v>21.7591</v>
-      </c>
-      <c r="G20" t="n">
-        <v>707.7</v>
-      </c>
-      <c r="H20" t="n">
-        <v>3559</v>
-      </c>
-      <c r="I20" t="n">
-        <v>8879</v>
-      </c>
-      <c r="J20" t="n">
-        <v>811</v>
-      </c>
-      <c r="K20" t="n">
-        <v>2.65</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="n">
-        <v>19510000</v>
-      </c>
-      <c r="D21" t="n">
-        <v>3455809</v>
-      </c>
-      <c r="E21" t="n">
-        <v>398700</v>
-      </c>
-      <c r="F21" t="n">
-        <v>21.11</v>
-      </c>
-      <c r="G21" t="n">
-        <v>722.9400000000001</v>
-      </c>
-      <c r="H21" t="n">
-        <v>3609</v>
-      </c>
-      <c r="I21" t="n">
-        <v>5200</v>
-      </c>
-      <c r="J21" t="n">
-        <v>500</v>
-      </c>
-      <c r="K21" t="n">
-        <v>1.49</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="n">
-        <v>19883117.43</v>
-      </c>
-      <c r="D22" t="n">
-        <v>3282439.67</v>
-      </c>
-      <c r="E22" t="n">
-        <v>446113.08</v>
-      </c>
-      <c r="F22" t="n">
-        <v>21.2716</v>
-      </c>
-      <c r="G22" t="n">
-        <v>739.3772</v>
-      </c>
-      <c r="H22" t="n">
-        <v>3603</v>
-      </c>
-      <c r="I22" t="n">
-        <v>7058.42</v>
-      </c>
-      <c r="J22" t="n">
-        <v>392</v>
-      </c>
-      <c r="K22" t="n">
-        <v>1.1823</v>
+        <v>0.9817</v>
       </c>
     </row>
   </sheetData>
